--- a/Data/Trade/SZ.000166.xlsx
+++ b/Data/Trade/SZ.000166.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>243</v>
+        <v>566</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.15314829</v>
+        <v>5.15</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -487,12 +487,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.25</v>
+        <v>54.23770002260146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>244</v>
+        <v>567</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.13359175</v>
+        <v>5.13</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -512,12 +512,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46.32352941176468</v>
+        <v>44.15095374443413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>245</v>
+        <v>568</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.0847004</v>
+        <v>5.08</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -537,12 +537,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.24164901417632</v>
+        <v>13.39663823511262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>246</v>
+        <v>569</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.10425694</v>
+        <v>5.1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -562,12 +562,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>35.56064551123416</v>
+        <v>33.37953282461065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>247</v>
+        <v>570</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.13359175</v>
+        <v>5.13</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -587,12 +587,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.97626574751285</v>
+        <v>53.31208824608171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>248</v>
+        <v>571</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.9869177</v>
+        <v>4.99</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -612,12 +612,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>12.51674391589781</v>
+        <v>13.46722579253162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.1824831</v>
+        <v>5.18</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -637,12 +637,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>64.41036377808248</v>
+        <v>64.69214714758401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>250</v>
+        <v>573</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.06514386</v>
+        <v>5.07</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -662,12 +662,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>56.53823967871369</v>
+        <v>58.40931816451446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.01625251</v>
+        <v>5.02</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -687,12 +687,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>38.83766001569673</v>
+        <v>41.05764161450625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>252</v>
+        <v>575</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.00647424</v>
+        <v>5.01</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -712,12 +712,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>28.29434112340599</v>
+        <v>30.52929529534131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.99669597</v>
+        <v>5</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -737,12 +737,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>20.91910733480634</v>
+        <v>22.98648746396947</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>254</v>
+        <v>577</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.02603078</v>
+        <v>5.03</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -762,12 +762,12 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>26.13935901715288</v>
+        <v>28.21491880864683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>255</v>
+        <v>578</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.9869177</v>
+        <v>4.99</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -787,12 +787,12 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>18.60772029341649</v>
+        <v>20.36685237670038</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>256</v>
+        <v>579</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.97713943</v>
+        <v>4.98</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -812,12 +812,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>12.82478687529894</v>
+        <v>14.3079641944968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>257</v>
+        <v>580</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.86957846</v>
+        <v>4.87</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -837,12 +837,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.674003414718761</v>
+        <v>-2.055860178989171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>258</v>
+        <v>581</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.70334787</v>
+        <v>4.7</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -862,12 +862,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.47837825971714</v>
+        <v>-3.888412654544645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>259</v>
+        <v>582</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.62512171</v>
+        <v>4.63</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -887,12 +887,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.800295226012075</v>
+        <v>-6.405464406681077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>260</v>
+        <v>583</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.66423479</v>
+        <v>4.66</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -912,12 +912,12 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9390010420643797</v>
+        <v>-1.597562096815754</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>261</v>
+        <v>584</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.5957869</v>
+        <v>4.6</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -937,12 +937,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.622522533992182</v>
+        <v>0.7682545911277217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>262</v>
+        <v>585</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.57623036</v>
+        <v>4.58</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -962,12 +962,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5653048759843848</v>
+        <v>1.065321129693039</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>263</v>
+        <v>586</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4.58600863</v>
+        <v>4.59</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -987,12 +987,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.889023163963579</v>
+        <v>3.642500022607116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.60556517</v>
+        <v>4.61</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1012,12 +1012,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.623109468553203</v>
+        <v>8.573852718160367</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>265</v>
+        <v>588</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.62512171</v>
+        <v>4.63</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1037,12 +1037,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>15.17848414097334</v>
+        <v>16.40027642261879</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>266</v>
+        <v>589</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.50778247</v>
+        <v>4.51</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1062,12 +1062,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19.94584560060525</v>
+        <v>20.77986612418421</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>267</v>
+        <v>590</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.51756074</v>
+        <v>4.52</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1087,12 +1087,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>31.89472439116989</v>
+        <v>32.76095835056736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>268</v>
+        <v>591</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.52733901</v>
+        <v>4.53</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1112,12 +1112,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>42.71151797626284</v>
+        <v>43.71528011606556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>269</v>
+        <v>592</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.5957869</v>
+        <v>4.6</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1137,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>74.91630246464435</v>
+        <v>76.61804644961069</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>270</v>
+        <v>593</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.57623036</v>
+        <v>4.58</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1162,12 +1162,12 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>87.47085445955547</v>
+        <v>89.45980142658595</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>271</v>
+        <v>594</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.62512171</v>
+        <v>4.63</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1187,12 +1187,12 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>97.66726878702725</v>
+        <v>99.88705663029218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>272</v>
+        <v>595</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.72290441</v>
+        <v>4.72</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1212,12 +1212,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>112.8481438309285</v>
+        <v>112.9227269605698</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.6935696</v>
+        <v>4.69</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1237,12 +1237,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>96.91752256753428</v>
+        <v>95.93937772553429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>274</v>
+        <v>597</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.67401306</v>
+        <v>4.67</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1262,12 +1262,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>82.95753013681254</v>
+        <v>81.43060312700256</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>275</v>
+        <v>598</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.71312614</v>
+        <v>4.71</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1287,12 +1287,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>79.75782406010981</v>
+        <v>78.13021263503927</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>276</v>
+        <v>599</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.74246095</v>
+        <v>4.74</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1312,12 +1312,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>83.61941550837656</v>
+        <v>82.16113113165176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.6935696</v>
+        <v>4.69</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1337,12 +1337,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>73.43024480610219</v>
+        <v>71.86763790781919</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>278</v>
+        <v>601</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.68379133</v>
+        <v>4.68</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1362,12 +1362,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>56.49444139152078</v>
+        <v>54.61500825243479</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>279</v>
+        <v>602</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.63489998</v>
+        <v>4.63</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1387,12 +1387,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>23.49833648977774</v>
+        <v>20.90949960819125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>280</v>
+        <v>603</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.68379133</v>
+        <v>4.68</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1412,12 +1412,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>25.91945194922954</v>
+        <v>23.45072251946276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.63489998</v>
+        <v>4.63</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1437,12 +1437,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.620612531088028</v>
+        <v>1.705749653420241</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>282</v>
+        <v>605</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.71312614</v>
+        <v>4.71</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1462,12 +1462,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>36.58550897473033</v>
+        <v>33.91249123737609</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>283</v>
+        <v>606</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.68379133</v>
+        <v>4.68</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1487,12 +1487,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>39.08818239492945</v>
+        <v>36.26694892020505</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>284</v>
+        <v>607</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.60556517</v>
+        <v>4.61</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1512,12 +1512,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.87781737334399</v>
+        <v>15.77631672927174</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>285</v>
+        <v>608</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4.55667382</v>
+        <v>4.56</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1537,12 +1537,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.552979215414155</v>
+        <v>-2.43261142686417</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>286</v>
+        <v>609</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4.5957869</v>
+        <v>4.6</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1562,12 +1562,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>4.993765959452986</v>
+        <v>7.864970668123952</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.60556517</v>
+        <v>4.61</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1587,12 +1587,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.74250697974814</v>
+        <v>17.92616901462842</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>288</v>
+        <v>611</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4.57623036</v>
+        <v>4.58</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1612,12 +1612,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>9.861466761462914</v>
+        <v>12.81881794795638</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>289</v>
+        <v>612</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.60556517</v>
+        <v>4.61</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1637,12 +1637,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>18.71760921013092</v>
+        <v>21.68098703607282</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>290</v>
+        <v>613</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.5957869</v>
+        <v>4.6</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1662,12 +1662,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>20.06888763240963</v>
+        <v>22.85457309198523</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>291</v>
+        <v>614</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4.55667382</v>
+        <v>4.56</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1687,12 +1687,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>6.823417775481104</v>
+        <v>9.117548348223416</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>292</v>
+        <v>615</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.4980042</v>
+        <v>4.5</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1712,12 +1712,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.851918265996531</v>
+        <v>-1.30600215377779</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4.55667382</v>
+        <v>4.56</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1737,12 +1737,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>25.19095601286703</v>
+        <v>27.14089881667901</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4.58600863</v>
+        <v>4.59</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1762,12 +1762,12 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>53.15611416869903</v>
+        <v>55.60252745998223</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>295</v>
+        <v>618</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4.60556517</v>
+        <v>4.61</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1787,12 +1787,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>64.90759660141427</v>
+        <v>67.38187876807569</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>296</v>
+        <v>619</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4.61534344</v>
+        <v>4.62</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1812,12 +1812,12 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>72.97143255504967</v>
+        <v>75.50713295446081</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>297</v>
+        <v>620</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4.61534344</v>
+        <v>4.62</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -1837,12 +1837,12 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>75.32572957149689</v>
+        <v>77.85894814519304</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>298</v>
+        <v>621</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4.5957869</v>
+        <v>4.6</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -1862,12 +1862,12 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>67.47345776259316</v>
+        <v>69.80810142597602</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>299</v>
+        <v>622</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4.60556517</v>
+        <v>4.61</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -1887,12 +1887,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>66.01031784265294</v>
+        <v>68.30925567288857</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4.53711728</v>
+        <v>4.54</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -1912,12 +1912,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>38.4488340955922</v>
+        <v>40.12854216850012</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>301</v>
+        <v>624</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4.54689555</v>
+        <v>4.55</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -1937,12 +1937,12 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>28.27639943633331</v>
+        <v>29.73422795161146</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>302</v>
+        <v>625</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4.53711728</v>
+        <v>4.54</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1962,12 +1962,12 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>10.20785146693486</v>
+        <v>11.67106349104081</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>303</v>
+        <v>626</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4.52733901</v>
+        <v>4.53</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -1987,12 +1987,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.043239768674482</v>
+        <v>-0.656215259785256</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>304</v>
+        <v>627</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4.54689555</v>
+        <v>4.55</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -2012,12 +2012,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>9.775894471555141</v>
+        <v>11.61326037967721</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>305</v>
+        <v>628</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.55667382</v>
+        <v>4.56</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -2037,12 +2037,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>23.94263252592551</v>
+        <v>26.25473566303705</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>306</v>
+        <v>629</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4.53711728</v>
+        <v>4.54</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -2062,12 +2062,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>20.4358109042646</v>
+        <v>22.72002334365914</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>307</v>
+        <v>630</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4.50778247</v>
+        <v>4.51</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2087,12 +2087,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>14.28667554092701</v>
+        <v>16.2576512673562</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>308</v>
+        <v>631</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4.46866939</v>
+        <v>4.47</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -2112,12 +2112,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>9.432130062938114</v>
+        <v>10.54340206318909</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>309</v>
+        <v>632</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4.47844766</v>
+        <v>4.48</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -2137,12 +2137,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>12.47653984351805</v>
+        <v>13.28697496226123</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>310</v>
+        <v>633</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.44911285</v>
+        <v>4.45</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -2162,12 +2162,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>4.518492050958045</v>
+        <v>4.858787717180775</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>311</v>
+        <v>634</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4.46866939</v>
+        <v>4.47</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -2187,12 +2187,12 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>10.28344881723932</v>
+        <v>10.64377236316198</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>312</v>
+        <v>635</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4.52733901</v>
+        <v>4.53</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -2212,12 +2212,12 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>41.11481110622825</v>
+        <v>42.15541269871964</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>313</v>
+        <v>636</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4.4980042</v>
+        <v>4.5</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2237,12 +2237,12 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>42.40618919017479</v>
+        <v>43.50014255377852</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>314</v>
+        <v>637</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4.46866939</v>
+        <v>4.47</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -2262,12 +2262,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>34.18336888609063</v>
+        <v>35.26105826618342</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>315</v>
+        <v>638</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.47844766</v>
+        <v>4.48</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -2287,12 +2287,12 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>41.17507443026701</v>
+        <v>42.60455550740494</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>316</v>
+        <v>639</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.45889112</v>
+        <v>4.46</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -2312,12 +2312,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>28.59637973542537</v>
+        <v>29.84704032429569</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>317</v>
+        <v>640</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.41977804</v>
+        <v>4.42</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -2337,12 +2337,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>12.4780458833546</v>
+        <v>12.89005977373599</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.40999977</v>
+        <v>4.41</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2362,12 +2362,12 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>9.170057648671801</v>
+        <v>9.047275588069851</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>319</v>
+        <v>642</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.37088669</v>
+        <v>4.37</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -2387,12 +2387,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>2.113044126614696</v>
+        <v>1.374287284247103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>320</v>
+        <v>643</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4.45889112</v>
+        <v>4.46</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -2412,12 +2412,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>38.24798383113873</v>
+        <v>38.143405715868</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.41977804</v>
+        <v>4.42</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -2437,12 +2437,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>38.94706994080028</v>
+        <v>38.81404311499933</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>322</v>
+        <v>645</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4.42955631</v>
+        <v>4.43</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -2462,12 +2462,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>49.00439673685717</v>
+        <v>49.02471358018423</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.40999977</v>
+        <v>4.41</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -2487,12 +2487,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>42.84420160137974</v>
+        <v>42.72886860244148</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>324</v>
+        <v>647</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.42955631</v>
+        <v>4.43</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -2512,12 +2512,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>58.4940184002737</v>
+        <v>58.62520470425767</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>325</v>
+        <v>648</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.4980042</v>
+        <v>4.5</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -2537,12 +2537,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>88.11682382197357</v>
+        <v>89.08309427020006</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>326</v>
+        <v>649</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4.51756074</v>
+        <v>4.52</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -2562,12 +2562,12 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>110.9362013625101</v>
+        <v>112.5284560322656</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>327</v>
+        <v>650</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4.51756074</v>
+        <v>4.52</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -2587,12 +2587,12 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>115.2878500526657</v>
+        <v>117.0833052034974</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>328</v>
+        <v>651</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4.71312614</v>
+        <v>4.71</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -2612,12 +2612,12 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>117.284340931618</v>
+        <v>117.3016329430186</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>329</v>
+        <v>652</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4.56645209</v>
+        <v>4.57</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -2637,12 +2637,12 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>82.54748418171343</v>
+        <v>83.17090488744674</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>330</v>
+        <v>653</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4.55667382</v>
+        <v>4.56</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -2662,12 +2662,12 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>58.20479563775598</v>
+        <v>59.16400009144095</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>331</v>
+        <v>654</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.51756074</v>
+        <v>4.52</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -2687,12 +2687,12 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>36.40473454735761</v>
+        <v>37.30425011905101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>332</v>
+        <v>655</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4.55667382</v>
+        <v>4.56</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -2712,12 +2712,12 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>36.21251466858526</v>
+        <v>37.29263183447489</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>333</v>
+        <v>656</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4.51756074</v>
+        <v>4.52</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -2737,12 +2737,12 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>27.58958198151034</v>
+        <v>28.52760567349434</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>334</v>
+        <v>657</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.57623036</v>
+        <v>4.58</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -2762,12 +2762,12 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>28.88610278930926</v>
+        <v>30.33641697236338</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>335</v>
+        <v>658</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4.68379133</v>
+        <v>4.68</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -2787,12 +2787,12 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>64.40091543100027</v>
+        <v>63.63320350969117</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>336</v>
+        <v>659</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4.66423479</v>
+        <v>4.66</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
@@ -2809,15 +2809,15 @@
         <v>0</v>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>71.58034397265514</v>
+        <v>69.52464460506933</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>337</v>
+        <v>660</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4.68379133</v>
+        <v>4.68</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -2837,12 +2837,12 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>81.31058317295066</v>
+        <v>78.85500059142579</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>338</v>
+        <v>661</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4.6935696</v>
+        <v>4.69</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -2862,12 +2862,12 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>86.00078571779443</v>
+        <v>83.58112874692621</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>339</v>
+        <v>662</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4.68379133</v>
+        <v>4.68</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -2887,12 +2887,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>84.08523288019228</v>
+        <v>81.70790062091916</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>340</v>
+        <v>663</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4.63489998</v>
+        <v>4.63</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -2912,12 +2912,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>66.02070203975509</v>
+        <v>63.37939231034952</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>341</v>
+        <v>664</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4.5957869</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -2937,12 +2937,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>43.71194366181028</v>
+        <v>44.03507618961366</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>342</v>
+        <v>665</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4.55667382</v>
+        <v>4.56</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -2962,12 +2962,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>17.46662735749837</v>
+        <v>19.02484379274067</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>343</v>
+        <v>666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4.62512171</v>
+        <v>4.63</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -2987,12 +2987,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>23.37821417286477</v>
+        <v>26.26638083462026</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>344</v>
+        <v>667</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4.5957869</v>
+        <v>4.6</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -3012,12 +3012,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>16.18578451604266</v>
+        <v>19.35674348929849</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>345</v>
+        <v>668</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4.60556517</v>
+        <v>4.61</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -3037,12 +3037,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>17.85739527789475</v>
+        <v>21.12926320884399</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>346</v>
+        <v>669</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4.5957869</v>
+        <v>4.6</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -3062,12 +3062,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>16.0606228078407</v>
+        <v>19.17758094733732</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>347</v>
+        <v>670</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4.58600863</v>
+        <v>4.59</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -3087,12 +3087,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>17.5516176943529</v>
+        <v>20.93371562284385</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>348</v>
+        <v>671</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4.54689555</v>
+        <v>4.55</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -3112,12 +3112,12 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>12.211814762842</v>
+        <v>14.97434003100817</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>349</v>
+        <v>672</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4.47844766</v>
+        <v>4.48</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -3137,12 +3137,12 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>-3.283005173831576</v>
+        <v>-1.759852399138147</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>350</v>
+        <v>673</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4.50778247</v>
+        <v>4.51</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -3162,12 +3162,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>4.336600681709193</v>
+        <v>5.437453428204698</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>351</v>
+        <v>674</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4.51756074</v>
+        <v>4.52</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -3187,12 +3187,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>12.79680320842632</v>
+        <v>13.78235309005849</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>352</v>
+        <v>675</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4.52733901</v>
+        <v>4.53</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -3212,12 +3212,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>24.54491455439893</v>
+        <v>25.72777697970943</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>353</v>
+        <v>676</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4.51756074</v>
+        <v>4.52</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -3237,12 +3237,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>27.5913913392223</v>
+        <v>28.85356796600583</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>354</v>
+        <v>677</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4.52733901</v>
+        <v>4.53</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -3262,12 +3262,12 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>33.28707827997096</v>
+        <v>34.69623156055218</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>355</v>
+        <v>678</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4.53711728</v>
+        <v>4.54</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -3287,12 +3287,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>41.92385201337885</v>
+        <v>43.58265405592187</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>356</v>
+        <v>679</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>4.56645209</v>
+        <v>4.57</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -3312,12 +3312,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>65.50508379754631</v>
+        <v>67.81578929835602</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>357</v>
+        <v>680</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4.64467825</v>
+        <v>4.64</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -3337,12 +3337,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>90.92951083522662</v>
+        <v>89.88862577600862</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>358</v>
+        <v>681</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4.60556517</v>
+        <v>4.61</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -3362,12 +3362,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>86.83497191260967</v>
+        <v>87.61875610955707</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>359</v>
+        <v>682</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4.56645209</v>
+        <v>4.57</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -3387,12 +3387,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>63.67094019063045</v>
+        <v>65.22408822759397</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>360</v>
+        <v>683</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4.57623036</v>
+        <v>4.58</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -3412,12 +3412,12 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>55.07319589535327</v>
+        <v>57.10072117780962</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>361</v>
+        <v>684</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4.52733901</v>
+        <v>4.53</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -3437,12 +3437,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>29.92805385761785</v>
+        <v>31.70245411029755</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>362</v>
+        <v>685</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4.44911285</v>
+        <v>4.45</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -3462,12 +3462,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>4.632748878109027</v>
+        <v>5.43666254138671</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>363</v>
+        <v>686</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4.40999977</v>
+        <v>4.41</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -3487,12 +3487,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>-4.538151869355289</v>
+        <v>-4.506844798067263</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>364</v>
+        <v>687</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4.41977804</v>
+        <v>4.42</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
@@ -3512,12 +3512,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>-4.661592798453221</v>
+        <v>-4.916319690287978</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>365</v>
+        <v>688</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4.40999977</v>
+        <v>4.41</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -3537,12 +3537,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>-5.731067728032599</v>
+        <v>-6.136737079191761</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>366</v>
+        <v>689</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4.39044323</v>
+        <v>4.39</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -3562,12 +3562,12 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>-4.803321090937814</v>
+        <v>-5.3526251867764</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>367</v>
+        <v>690</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4.4002215</v>
+        <v>4.4</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -3587,12 +3587,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.186987250425183</v>
+        <v>-0.3261717357719434</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>368</v>
+        <v>691</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4.4002215</v>
+        <v>4.4</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -3612,12 +3612,12 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>3.61869360888495</v>
+        <v>3.169294859696439</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>369</v>
+        <v>692</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>4.4002215</v>
+        <v>4.4</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -3637,12 +3637,12 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>5.976387268447752</v>
+        <v>5.59593767543009</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4.35133015</v>
+        <v>4.35</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -3662,12 +3662,12 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>-1.047199320092584</v>
+        <v>-1.921166198860316</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>371</v>
+        <v>694</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4.36110842</v>
+        <v>4.36</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -3687,12 +3687,12 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>18.16978434278866</v>
+        <v>17.07728725617786</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4.37088669</v>
+        <v>4.37</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -3712,12 +3712,12 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>33.42195977391809</v>
+        <v>32.38973870149225</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>373</v>
+        <v>696</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4.36110842</v>
+        <v>4.36</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -3737,12 +3737,12 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>34.89985173668313</v>
+        <v>33.81116665342032</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>374</v>
+        <v>697</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4.35133015</v>
+        <v>4.35</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -3762,12 +3762,12 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>29.29797892399486</v>
+        <v>28.08922249434428</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>375</v>
+        <v>698</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4.39044323</v>
+        <v>4.39</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -3787,12 +3787,12 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>48.15610128553081</v>
+        <v>47.42423124816548</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>376</v>
+        <v>699</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4.40999977</v>
+        <v>4.41</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -3812,12 +3812,12 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>67.85347774782113</v>
+        <v>67.63085468667313</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>377</v>
+        <v>700</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3837,12 +3837,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>89.03229703742896</v>
+        <v>89.06062985404533</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>378</v>
+        <v>701</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3862,12 +3862,12 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>75.09164020997325</v>
+        <v>75.22836088152752</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>379</v>
+        <v>702</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3887,12 +3887,12 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>43.88623280066922</v>
+        <v>44.05593466646764</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>380</v>
+        <v>703</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3912,12 +3912,12 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>12.74660346940522</v>
+        <v>12.91210788089009</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>381</v>
+        <v>704</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3937,12 +3937,12 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>6.449010117440537</v>
+        <v>6.59425961462108</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>382</v>
+        <v>705</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3962,12 +3962,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>6.466941535021128</v>
+        <v>6.587050015046344</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>383</v>
+        <v>706</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3987,12 +3987,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>31.81000184124229</v>
+        <v>31.90559114919567</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>384</v>
+        <v>707</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4012,12 +4012,12 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>52.9491012363597</v>
+        <v>53.02317210028632</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>385</v>
+        <v>708</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4037,12 +4037,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>60.29244067689302</v>
+        <v>60.34871769192705</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>386</v>
+        <v>709</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4062,12 +4062,12 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>51.76262062264898</v>
+        <v>51.80473625872695</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>387</v>
+        <v>710</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4087,12 +4087,12 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>45.49447597755923</v>
+        <v>45.52561815231473</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>388</v>
+        <v>711</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4112,12 +4112,12 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>65.67301580928829</v>
+        <v>65.69582064848315</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>389</v>
+        <v>712</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4137,12 +4137,12 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>81.83700760110189</v>
+        <v>81.85357308680375</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>390</v>
+        <v>713</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4162,12 +4162,12 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>81.86037025821075</v>
+        <v>81.87232208839329</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>391</v>
+        <v>714</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4187,12 +4187,12 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>77.12298305296981</v>
+        <v>77.13155638845679</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>392</v>
+        <v>715</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4212,12 +4212,12 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>66.71999641963458</v>
+        <v>66.72611560909165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>393</v>
+        <v>716</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4237,12 +4237,12 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>79.40533609152584</v>
+        <v>79.40968463947438</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>394</v>
+        <v>717</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4262,12 +4262,12 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>71.03526452812316</v>
+        <v>71.03834295229586</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>395</v>
+        <v>718</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4287,12 +4287,12 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>91.83679480884913</v>
+        <v>91.83896668643561</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>396</v>
+        <v>719</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4312,12 +4312,12 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>87.40985880974438</v>
+        <v>87.41138645800515</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>397</v>
+        <v>720</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4337,12 +4337,12 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>83.9240596131396</v>
+        <v>83.92513119855997</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>398</v>
+        <v>721</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4362,12 +4362,12 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>76.82738168538711</v>
+        <v>76.828131511165</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>399</v>
+        <v>722</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4387,12 +4387,12 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>89.92750691730311</v>
+        <v>89.92803042482015</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>400</v>
+        <v>723</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4412,12 +4412,12 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>85.75783958512102</v>
+        <v>85.75820433924247</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>401</v>
+        <v>724</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4437,12 +4437,12 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>80.07775964732497</v>
+        <v>80.07801331614596</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>402</v>
+        <v>725</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4462,12 +4462,12 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>71.27012991023557</v>
+        <v>71.27030602238742</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>403</v>
+        <v>726</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4487,12 +4487,12 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>61.47673240386399</v>
+        <v>61.47685447836821</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>404</v>
+        <v>727</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4512,12 +4512,12 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>66.06216234717968</v>
+        <v>66.06224684111785</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>405</v>
+        <v>728</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4537,12 +4537,12 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>68.51452057970741</v>
+        <v>68.51457898295641</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>406</v>
+        <v>729</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4562,12 +4562,12 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>84.78213710348959</v>
+        <v>84.78217742162684</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>407</v>
+        <v>730</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4587,12 +4587,12 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>97.79461094235089</v>
+        <v>97.7946387428677</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>408</v>
+        <v>731</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4612,12 +4612,12 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>105.5107395902194</v>
+        <v>105.510758738403</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>409</v>
+        <v>732</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4637,12 +4637,12 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>98.71998256421497</v>
+        <v>98.71999573934121</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>410</v>
+        <v>733</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4662,12 +4662,12 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>83.49115131349632</v>
+        <v>83.49116037002747</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>411</v>
+        <v>734</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4687,12 +4687,12 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>90.25644479468386</v>
+        <v>90.25645101444709</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4712,12 +4712,12 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>88.02697684949064</v>
+        <v>88.02698111738334</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>413</v>
+        <v>736</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>90.37459305672948</v>
+        <v>90.3745959829138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>414</v>
+        <v>737</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4762,12 +4762,12 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>75.6667856298811</v>
+        <v>75.66678763461903</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>415</v>
+        <v>738</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4787,7 +4787,382 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>53.81989691474539</v>
+        <v>53.8198982872029</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021-09-16</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>44.40854522992089</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>28.39117065499133</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021-09-22</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>12.46596424119976</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>14.49681474654182</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021-09-24</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="D179" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-5.413068220764487</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021-09-27</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-10.5928841777818</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D181" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-11.01096676518745</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="D182" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-6.301510318937126</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3.222947545630497</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="D184" t="b">
+        <v>0</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>10.89788844698872</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021-10-11</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.6356343354645091</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D186" t="b">
+        <v>0</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>7.76460427795601</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021-10-13</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>14.3937401380691</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021-10-14</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="D188" t="b">
+        <v>0</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>14.88536597925525</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021-10-15</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>8.336300436228743</v>
       </c>
     </row>
   </sheetData>
